--- a/research/media/heat.xlsx
+++ b/research/media/heat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/heat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7AE264-0F18-2B4F-889F-20F4B3655BE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E2BBDC-2663-1C4C-8300-CBB7A99FB835}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{27A71E1D-9A1B-F94D-A4BA-4082CFCBB010}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date Started</t>
   </si>
   <si>
     <t>SHU</t>
+  </si>
+  <si>
+    <t>Amount (TSP)</t>
   </si>
 </sst>
 </file>
@@ -184,6 +187,78 @@
                 <c:pt idx="4">
                   <c:v>44254</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>44305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44306</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44308</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44309</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44310</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44311</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44312</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44313</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44314</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44315</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44318</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44319</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44320</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44322</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44323</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44324</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44325</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44326</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44327</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44328</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -207,6 +282,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1299,23 +1377,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA1B1E8-64A1-1D4F-9F5C-008EEDFC049A}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -1323,7 +1407,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44226</v>
       </c>
@@ -1331,7 +1415,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44232</v>
       </c>
@@ -1339,7 +1423,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44239</v>
       </c>
@@ -1347,12 +1431,589 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44254</v>
       </c>
       <c r="B6">
         <v>90000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B7">
+        <v>250000</v>
+      </c>
+      <c r="C7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44307</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>44380</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>44381</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>44410</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>44413</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>44415</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>44416</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>44417</v>
       </c>
     </row>
   </sheetData>

--- a/research/media/heat.xlsx
+++ b/research/media/heat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E2BBDC-2663-1C4C-8300-CBB7A99FB835}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CC31D2-FCF4-754D-AC5C-F6698E12F8C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{27A71E1D-9A1B-F94D-A4BA-4082CFCBB010}"/>
   </bookViews>
@@ -1463,12 +1463,15 @@
         <v>44307</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44308</v>
+      </c>
+      <c r="C10">
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">

--- a/research/media/heat.xlsx
+++ b/research/media/heat.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CC31D2-FCF4-754D-AC5C-F6698E12F8C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3862F4-B017-2846-976B-6D87FDF6D971}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{27A71E1D-9A1B-F94D-A4BA-4082CFCBB010}"/>
   </bookViews>
   <sheets>
     <sheet name="heat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -284,6 +284,33 @@
                   <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1380,7 +1407,7 @@
   <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1454,6 +1481,9 @@
       <c r="A8" s="1">
         <v>44306</v>
       </c>
+      <c r="B8">
+        <v>250000</v>
+      </c>
       <c r="C8">
         <v>0.75</v>
       </c>
@@ -1462,6 +1492,9 @@
       <c r="A9" s="1">
         <v>44307</v>
       </c>
+      <c r="B9">
+        <v>250000</v>
+      </c>
       <c r="C9">
         <v>1.25</v>
       </c>
@@ -1470,6 +1503,9 @@
       <c r="A10" s="1">
         <v>44308</v>
       </c>
+      <c r="B10">
+        <v>250000</v>
+      </c>
       <c r="C10">
         <v>1.5</v>
       </c>
@@ -1478,30 +1514,66 @@
       <c r="A11" s="1">
         <v>44309</v>
       </c>
+      <c r="B11">
+        <v>250000</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44310</v>
       </c>
+      <c r="B12">
+        <v>250000</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44311</v>
       </c>
+      <c r="B13">
+        <v>250000</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44312</v>
       </c>
+      <c r="B14">
+        <v>250000</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44313</v>
       </c>
+      <c r="B15">
+        <v>250000</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44314</v>
+      </c>
+      <c r="B16">
+        <v>250000</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/research/media/heat.xlsx
+++ b/research/media/heat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3862F4-B017-2846-976B-6D87FDF6D971}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BA4217-90E3-3B41-A10B-FDB6CF937238}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{27A71E1D-9A1B-F94D-A4BA-4082CFCBB010}"/>
   </bookViews>
@@ -311,6 +311,9 @@
                   <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1407,7 +1410,7 @@
   <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1576,82 +1579,88 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44315</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>250000</v>
+      </c>
+      <c r="C17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44316</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44317</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44318</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44319</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44320</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44321</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44322</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44323</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44324</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44325</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44326</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44327</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44328</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44329</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44330</v>
       </c>

--- a/research/media/heat.xlsx
+++ b/research/media/heat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BA4217-90E3-3B41-A10B-FDB6CF937238}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC67A79-27A3-D34B-86B8-C21575D87273}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{27A71E1D-9A1B-F94D-A4BA-4082CFCBB010}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14360" xr2:uid="{27A71E1D-9A1B-F94D-A4BA-4082CFCBB010}"/>
   </bookViews>
   <sheets>
     <sheet name="heat" sheetId="1" r:id="rId1"/>
@@ -314,6 +314,9 @@
                   <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1410,7 +1413,7 @@
   <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1599,6 +1602,12 @@
       <c r="A19" s="1">
         <v>44317</v>
       </c>
+      <c r="B19">
+        <v>250000</v>
+      </c>
+      <c r="C19">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">

--- a/research/media/heat.xlsx
+++ b/research/media/heat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC67A79-27A3-D34B-86B8-C21575D87273}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAA5C1D-68D0-8947-A8CB-AE3D4A76AB9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14360" xr2:uid="{27A71E1D-9A1B-F94D-A4BA-4082CFCBB010}"/>
   </bookViews>
@@ -317,6 +317,9 @@
                   <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1413,7 +1416,7 @@
   <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1613,6 +1616,12 @@
       <c r="A20" s="1">
         <v>44318</v>
       </c>
+      <c r="B20">
+        <v>250000</v>
+      </c>
+      <c r="C20">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">

--- a/research/media/heat.xlsx
+++ b/research/media/heat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAA5C1D-68D0-8947-A8CB-AE3D4A76AB9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EFAE5A-6C82-A74B-B508-14A4237D2BC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14360" xr2:uid="{27A71E1D-9A1B-F94D-A4BA-4082CFCBB010}"/>
   </bookViews>
@@ -320,6 +320,9 @@
                   <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1416,7 +1419,7 @@
   <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1627,10 +1630,19 @@
       <c r="A21" s="1">
         <v>44319</v>
       </c>
+      <c r="B21">
+        <v>250000</v>
+      </c>
+      <c r="C21">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44320</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">

--- a/research/media/heat.xlsx
+++ b/research/media/heat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EFAE5A-6C82-A74B-B508-14A4237D2BC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D86708B-B49C-D444-89D1-9CFC149267C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14360" xr2:uid="{27A71E1D-9A1B-F94D-A4BA-4082CFCBB010}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14360" xr2:uid="{27A71E1D-9A1B-F94D-A4BA-4082CFCBB010}"/>
   </bookViews>
   <sheets>
     <sheet name="heat" sheetId="1" r:id="rId1"/>
